--- a/Cam6calib.xlsx
+++ b/Cam6calib.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46EEB5F7-5ACF-489C-80CF-29E1E9560D9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FDA79D-9A72-47F8-995C-08FCE84526D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13654" yWindow="2194" windowWidth="24686" windowHeight="13217" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22363" yWindow="3917" windowWidth="16191" windowHeight="13217" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -352,13 +352,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
-        <v>887.56799999999998</v>
+        <v>879.30200000000002</v>
       </c>
       <c r="B1" s="1">
-        <v>1018.29</v>
+        <v>1018.398</v>
       </c>
       <c r="C1" s="1">
-        <v>2555.5</v>
+        <v>2501.6</v>
       </c>
       <c r="D1" s="1">
         <v>0</v>
@@ -367,88 +367,88 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>922.05</v>
+        <v>909.84900000000005</v>
       </c>
       <c r="B2" s="1">
-        <v>1791.8130000000001</v>
+        <v>1795.6890000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>2555.5</v>
+        <v>2501.6</v>
       </c>
       <c r="D2" s="1">
-        <v>-16.02</v>
+        <v>-15.95</v>
       </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>915.24099999999999</v>
+        <v>903.52300000000002</v>
       </c>
       <c r="B3" s="1">
-        <v>1690.6479999999999</v>
+        <v>1697.4469999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>2555.5</v>
+        <v>2501.6</v>
       </c>
       <c r="D3" s="1">
-        <v>-14.07</v>
+        <v>-14.08</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>909.00199999999995</v>
+        <v>897.54499999999996</v>
       </c>
       <c r="B4" s="1">
-        <v>1588.5360000000001</v>
+        <v>1594.569</v>
       </c>
       <c r="C4" s="1">
-        <v>2555.5</v>
+        <v>2501.6</v>
       </c>
       <c r="D4" s="1">
-        <v>-11.97</v>
+        <v>-12.03</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>903.625</v>
+        <v>892.56100000000004</v>
       </c>
       <c r="B5" s="1">
-        <v>1491.825</v>
+        <v>1495.4469999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>2555.5</v>
+        <v>2501.6</v>
       </c>
       <c r="D5" s="1">
-        <v>-10</v>
+        <v>-10.029999999999999</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>898.99300000000005</v>
+        <v>888.35699999999997</v>
       </c>
       <c r="B6" s="1">
-        <v>1395.9380000000001</v>
+        <v>1396.8489999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>2555.5</v>
+        <v>2501.6</v>
       </c>
       <c r="D6" s="1">
-        <v>-7.97</v>
+        <v>-8</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>895.00699999999995</v>
+        <v>885.01800000000003</v>
       </c>
       <c r="B7" s="1">
-        <v>1301.306</v>
+        <v>1300.6199999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>2555.5</v>
+        <v>2501.6</v>
       </c>
       <c r="D7" s="1">
         <v>-6</v>
@@ -457,13 +457,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>891.92</v>
+        <v>882.30399999999997</v>
       </c>
       <c r="B8" s="1">
-        <v>1205.338</v>
+        <v>1204.7249999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>2555.5</v>
+        <v>2501.6</v>
       </c>
       <c r="D8" s="1">
         <v>-3.97</v>
@@ -472,13 +472,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>889.32600000000002</v>
+        <v>880.5</v>
       </c>
       <c r="B9" s="1">
-        <v>1111.25</v>
+        <v>1111.009</v>
       </c>
       <c r="C9" s="1">
-        <v>2555.5</v>
+        <v>2501.6</v>
       </c>
       <c r="D9" s="1">
         <v>-1.97</v>
@@ -487,28 +487,28 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>887.55100000000004</v>
+        <v>879.31899999999996</v>
       </c>
       <c r="B10" s="1">
-        <v>1018.058</v>
+        <v>1016.696</v>
       </c>
       <c r="C10" s="1">
-        <v>2555.5</v>
+        <v>2501.6</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>886.46299999999997</v>
+        <v>878.91099999999994</v>
       </c>
       <c r="B11" s="1">
-        <v>923.61300000000006</v>
+        <v>923.125</v>
       </c>
       <c r="C11" s="1">
-        <v>2555.5</v>
+        <v>2501.6</v>
       </c>
       <c r="D11" s="1">
         <v>2.0299999999999998</v>
@@ -517,118 +517,118 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>886.29100000000005</v>
+        <v>878.98599999999999</v>
       </c>
       <c r="B12" s="1">
-        <v>829.53499999999997</v>
+        <v>829.59900000000005</v>
       </c>
       <c r="C12" s="1">
-        <v>2555.5</v>
+        <v>2501.6</v>
       </c>
       <c r="D12" s="1">
-        <v>4.03</v>
+        <v>4.05</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>886.476</v>
+        <v>879.98699999999997</v>
       </c>
       <c r="B13" s="1">
-        <v>735.255</v>
+        <v>735.79200000000003</v>
       </c>
       <c r="C13" s="1">
-        <v>2555.5</v>
+        <v>2501.6</v>
       </c>
       <c r="D13" s="1">
-        <v>5.98</v>
+        <v>6.05</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>887.5</v>
+        <v>881.404</v>
       </c>
       <c r="B14" s="1">
-        <v>637.33199999999999</v>
+        <v>641.76400000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>2555.5</v>
+        <v>2501.6</v>
       </c>
       <c r="D14" s="1">
-        <v>8.0299999999999994</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>889.03300000000002</v>
+        <v>883.75699999999995</v>
       </c>
       <c r="B15" s="1">
-        <v>541.98500000000001</v>
+        <v>546.91999999999996</v>
       </c>
       <c r="C15" s="1">
-        <v>2555.5</v>
+        <v>2501.6</v>
       </c>
       <c r="D15" s="1">
-        <v>9.98</v>
+        <v>10.07</v>
       </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>891.50800000000004</v>
+        <v>886.83299999999997</v>
       </c>
       <c r="B16" s="1">
-        <v>444.08</v>
+        <v>453.09100000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>2555.5</v>
+        <v>2501.6</v>
       </c>
       <c r="D16" s="1">
-        <v>11.98</v>
+        <v>12.05</v>
       </c>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>894.75699999999995</v>
+        <v>890.05200000000002</v>
       </c>
       <c r="B17" s="1">
-        <v>344.49299999999999</v>
+        <v>356.267</v>
       </c>
       <c r="C17" s="1">
-        <v>2555.5</v>
+        <v>2501.6</v>
       </c>
       <c r="D17" s="1">
-        <v>13.98</v>
+        <v>14.05</v>
       </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>898.63900000000001</v>
+        <v>894.34299999999996</v>
       </c>
       <c r="B18" s="1">
-        <v>240.779</v>
+        <v>256.678</v>
       </c>
       <c r="C18" s="1">
-        <v>2555.5</v>
+        <v>2501.6</v>
       </c>
       <c r="D18" s="1">
-        <v>15.95</v>
+        <v>16.07</v>
       </c>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>869.64300000000003</v>
+        <v>860.5</v>
       </c>
       <c r="B19" s="1">
-        <v>1018.3579999999999</v>
+        <v>1018.3339999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>2655.2</v>
+        <v>2601.3000000000002</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -637,28 +637,28 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>903.42200000000003</v>
+        <v>890.404</v>
       </c>
       <c r="B20" s="1">
-        <v>1790.6969999999999</v>
+        <v>1794.52</v>
       </c>
       <c r="C20" s="1">
-        <v>2655.2</v>
+        <v>2601.3000000000002</v>
       </c>
       <c r="D20" s="1">
-        <v>-16</v>
+        <v>-15.93</v>
       </c>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>897.02700000000004</v>
+        <v>884.38300000000004</v>
       </c>
       <c r="B21" s="1">
-        <v>1692.328</v>
+        <v>1698.1569999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>2655.2</v>
+        <v>2601.3000000000002</v>
       </c>
       <c r="D21" s="1">
         <v>-14.07</v>
@@ -667,43 +667,43 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>890.74300000000005</v>
+        <v>878.50300000000004</v>
       </c>
       <c r="B22" s="1">
-        <v>1588.62</v>
+        <v>1595.68</v>
       </c>
       <c r="C22" s="1">
-        <v>2655.2</v>
+        <v>2601.3000000000002</v>
       </c>
       <c r="D22" s="1">
-        <v>-11.98</v>
+        <v>-12.02</v>
       </c>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>885.35199999999998</v>
+        <v>873.50099999999998</v>
       </c>
       <c r="B23" s="1">
-        <v>1492.9780000000001</v>
+        <v>1496.395</v>
       </c>
       <c r="C23" s="1">
-        <v>2655.2</v>
+        <v>2601.3000000000002</v>
       </c>
       <c r="D23" s="1">
-        <v>-9.98</v>
+        <v>-10.02</v>
       </c>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>880.97900000000004</v>
+        <v>869.45899999999995</v>
       </c>
       <c r="B24" s="1">
-        <v>1397.19</v>
+        <v>1397.6010000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>2655.2</v>
+        <v>2601.3000000000002</v>
       </c>
       <c r="D24" s="1">
         <v>-8</v>
@@ -712,28 +712,28 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>877.02</v>
+        <v>866.12900000000002</v>
       </c>
       <c r="B25" s="1">
-        <v>1301.9469999999999</v>
+        <v>1301.5150000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>2655.2</v>
+        <v>2601.3000000000002</v>
       </c>
       <c r="D25" s="1">
-        <v>-5.98</v>
+        <v>-6</v>
       </c>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>873.995</v>
+        <v>863.47299999999996</v>
       </c>
       <c r="B26" s="1">
-        <v>1207.1659999999999</v>
+        <v>1206.7850000000001</v>
       </c>
       <c r="C26" s="1">
-        <v>2655.2</v>
+        <v>2601.3000000000002</v>
       </c>
       <c r="D26" s="1">
         <v>-4</v>
@@ -742,163 +742,163 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>871.40499999999997</v>
+        <v>861.53700000000003</v>
       </c>
       <c r="B27" s="1">
-        <v>1112.3689999999999</v>
+        <v>1111.3579999999999</v>
       </c>
       <c r="C27" s="1">
-        <v>2655.2</v>
+        <v>2601.3000000000002</v>
       </c>
       <c r="D27" s="1">
-        <v>-1.98</v>
+        <v>-1.97</v>
       </c>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>869.60500000000002</v>
+        <v>860.49300000000005</v>
       </c>
       <c r="B28" s="1">
-        <v>1018.128</v>
+        <v>1017.283</v>
       </c>
       <c r="C28" s="1">
-        <v>2655.2</v>
+        <v>2601.3000000000002</v>
       </c>
       <c r="D28" s="1">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>868.5</v>
+        <v>859.952</v>
       </c>
       <c r="B29" s="1">
-        <v>924.30700000000002</v>
+        <v>924.81899999999996</v>
       </c>
       <c r="C29" s="1">
-        <v>2655.2</v>
+        <v>2601.3000000000002</v>
       </c>
       <c r="D29" s="1">
-        <v>2.02</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>868.17200000000003</v>
+        <v>860.04700000000003</v>
       </c>
       <c r="B30" s="1">
-        <v>830.755</v>
+        <v>831.54899999999998</v>
       </c>
       <c r="C30" s="1">
-        <v>2655.2</v>
+        <v>2601.3000000000002</v>
       </c>
       <c r="D30" s="1">
-        <v>4.0199999999999996</v>
+        <v>4.05</v>
       </c>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>868.46900000000005</v>
+        <v>860.98900000000003</v>
       </c>
       <c r="B31" s="1">
-        <v>736.09400000000005</v>
+        <v>737.89499999999998</v>
       </c>
       <c r="C31" s="1">
-        <v>2655.2</v>
+        <v>2601.3000000000002</v>
       </c>
       <c r="D31" s="1">
-        <v>6</v>
+        <v>6.05</v>
       </c>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>869.452</v>
+        <v>862.13900000000001</v>
       </c>
       <c r="B32" s="1">
-        <v>640.59699999999998</v>
+        <v>644.851</v>
       </c>
       <c r="C32" s="1">
-        <v>2655.2</v>
+        <v>2601.3000000000002</v>
       </c>
       <c r="D32" s="1">
-        <v>8</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>870.90099999999995</v>
+        <v>864.49300000000005</v>
       </c>
       <c r="B33" s="1">
-        <v>543.44500000000005</v>
+        <v>549.63</v>
       </c>
       <c r="C33" s="1">
-        <v>2655.2</v>
+        <v>2601.3000000000002</v>
       </c>
       <c r="D33" s="1">
-        <v>9.9700000000000006</v>
+        <v>10.07</v>
       </c>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>873.23400000000004</v>
+        <v>867.154</v>
       </c>
       <c r="B34" s="1">
-        <v>443.86500000000001</v>
+        <v>455.90600000000001</v>
       </c>
       <c r="C34" s="1">
-        <v>2655.2</v>
+        <v>2601.3000000000002</v>
       </c>
       <c r="D34" s="1">
-        <v>12</v>
+        <v>12.05</v>
       </c>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>876.05700000000002</v>
+        <v>870.80200000000002</v>
       </c>
       <c r="B35" s="1">
-        <v>345.08699999999999</v>
+        <v>359.38799999999998</v>
       </c>
       <c r="C35" s="1">
-        <v>2655.2</v>
+        <v>2601.3000000000002</v>
       </c>
       <c r="D35" s="1">
-        <v>13.97</v>
+        <v>14.05</v>
       </c>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>879.88199999999995</v>
+        <v>874.73400000000004</v>
       </c>
       <c r="B36" s="1">
-        <v>242.453</v>
+        <v>261.65199999999999</v>
       </c>
       <c r="C36" s="1">
-        <v>2655.2</v>
+        <v>2601.3000000000002</v>
       </c>
       <c r="D36" s="1">
-        <v>15.97</v>
+        <v>16.05</v>
       </c>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>853</v>
+        <v>843.02300000000002</v>
       </c>
       <c r="B37" s="1">
-        <v>1018.37</v>
+        <v>1018.378</v>
       </c>
       <c r="C37" s="1">
-        <v>2754.9</v>
+        <v>2701</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
@@ -907,73 +907,73 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>886.18799999999999</v>
+        <v>872.17</v>
       </c>
       <c r="B38" s="1">
-        <v>1790.569</v>
+        <v>1792.79</v>
       </c>
       <c r="C38" s="1">
-        <v>2754.9</v>
+        <v>2701</v>
       </c>
       <c r="D38" s="1">
-        <v>-16</v>
+        <v>-15.9</v>
       </c>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>879.80799999999999</v>
+        <v>866.38900000000001</v>
       </c>
       <c r="B39" s="1">
-        <v>1691.452</v>
+        <v>1697.3589999999999</v>
       </c>
       <c r="C39" s="1">
-        <v>2754.9</v>
+        <v>2701</v>
       </c>
       <c r="D39" s="1">
-        <v>-14.07</v>
+        <v>-14.1</v>
       </c>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>873.85299999999995</v>
+        <v>860.52099999999996</v>
       </c>
       <c r="B40" s="1">
-        <v>1588.1410000000001</v>
+        <v>1593.5540000000001</v>
       </c>
       <c r="C40" s="1">
-        <v>2754.9</v>
+        <v>2701</v>
       </c>
       <c r="D40" s="1">
-        <v>-11.98</v>
+        <v>-12.03</v>
       </c>
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>868.60799999999995</v>
+        <v>855.76599999999996</v>
       </c>
       <c r="B41" s="1">
-        <v>1492.252</v>
+        <v>1494.7739999999999</v>
       </c>
       <c r="C41" s="1">
-        <v>2754.9</v>
+        <v>2701</v>
       </c>
       <c r="D41" s="1">
-        <v>-9.98</v>
+        <v>-10.029999999999999</v>
       </c>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>864.03399999999999</v>
+        <v>851.76199999999994</v>
       </c>
       <c r="B42" s="1">
-        <v>1397.473</v>
+        <v>1396.8969999999999</v>
       </c>
       <c r="C42" s="1">
-        <v>2754.9</v>
+        <v>2701</v>
       </c>
       <c r="D42" s="1">
         <v>-8</v>
@@ -982,13 +982,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>860.21299999999997</v>
+        <v>848.54200000000003</v>
       </c>
       <c r="B43" s="1">
-        <v>1301.7840000000001</v>
+        <v>1300.2670000000001</v>
       </c>
       <c r="C43" s="1">
-        <v>2754.9</v>
+        <v>2701</v>
       </c>
       <c r="D43" s="1">
         <v>-6</v>
@@ -997,178 +997,178 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>857.17899999999997</v>
+        <v>846.03800000000001</v>
       </c>
       <c r="B44" s="1">
-        <v>1206.549</v>
+        <v>1204.934</v>
       </c>
       <c r="C44" s="1">
-        <v>2754.9</v>
+        <v>2701</v>
       </c>
       <c r="D44" s="1">
-        <v>-3.98</v>
+        <v>-3.97</v>
       </c>
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>854.95699999999999</v>
+        <v>844.39</v>
       </c>
       <c r="B45" s="1">
-        <v>1112.6959999999999</v>
+        <v>1111.5820000000001</v>
       </c>
       <c r="C45" s="1">
-        <v>2754.9</v>
+        <v>2701</v>
       </c>
       <c r="D45" s="1">
-        <v>-1.98</v>
+        <v>-1.97</v>
       </c>
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>853</v>
+        <v>842.99300000000005</v>
       </c>
       <c r="B46" s="1">
-        <v>1019.248</v>
+        <v>1017.456</v>
       </c>
       <c r="C46" s="1">
-        <v>2754.9</v>
+        <v>2701</v>
       </c>
       <c r="D46" s="1">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>851.96</v>
+        <v>842.5</v>
       </c>
       <c r="B47" s="1">
-        <v>924.45299999999997</v>
+        <v>924.07299999999998</v>
       </c>
       <c r="C47" s="1">
-        <v>2754.9</v>
+        <v>2701</v>
       </c>
       <c r="D47" s="1">
-        <v>2.02</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>851.423</v>
+        <v>842.53399999999999</v>
       </c>
       <c r="B48" s="1">
-        <v>831.15499999999997</v>
+        <v>831.56600000000003</v>
       </c>
       <c r="C48" s="1">
-        <v>2754.9</v>
+        <v>2701</v>
       </c>
       <c r="D48" s="1">
-        <v>4.0199999999999996</v>
+        <v>4.05</v>
       </c>
       <c r="E48" s="1"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>851.52800000000002</v>
+        <v>843.14200000000005</v>
       </c>
       <c r="B49" s="1">
-        <v>737.46100000000001</v>
+        <v>738.8</v>
       </c>
       <c r="C49" s="1">
-        <v>2754.9</v>
+        <v>2701</v>
       </c>
       <c r="D49" s="1">
-        <v>6</v>
+        <v>6.05</v>
       </c>
       <c r="E49" s="1"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>852.5</v>
+        <v>844.95399999999995</v>
       </c>
       <c r="B50" s="1">
-        <v>641.16700000000003</v>
+        <v>645.14</v>
       </c>
       <c r="C50" s="1">
-        <v>2754.9</v>
+        <v>2701</v>
       </c>
       <c r="D50" s="1">
-        <v>8</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="E50" s="1"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>853.976</v>
+        <v>846.98</v>
       </c>
       <c r="B51" s="1">
-        <v>543.94799999999998</v>
+        <v>550.66499999999996</v>
       </c>
       <c r="C51" s="1">
-        <v>2754.9</v>
+        <v>2701</v>
       </c>
       <c r="D51" s="1">
-        <v>9.9700000000000006</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="E51" s="1"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>856.23800000000006</v>
+        <v>849.57100000000003</v>
       </c>
       <c r="B52" s="1">
-        <v>444.88499999999999</v>
+        <v>454.68</v>
       </c>
       <c r="C52" s="1">
-        <v>2754.9</v>
+        <v>2701</v>
       </c>
       <c r="D52" s="1">
-        <v>12</v>
+        <v>12.05</v>
       </c>
       <c r="E52" s="1"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>859.00699999999995</v>
+        <v>852.81700000000001</v>
       </c>
       <c r="B53" s="1">
-        <v>346.62599999999998</v>
+        <v>358.69799999999998</v>
       </c>
       <c r="C53" s="1">
-        <v>2754.9</v>
+        <v>2701</v>
       </c>
       <c r="D53" s="1">
-        <v>13.97</v>
+        <v>14.05</v>
       </c>
       <c r="E53" s="1"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>862.61300000000006</v>
+        <v>856.92399999999998</v>
       </c>
       <c r="B54" s="1">
-        <v>241.886</v>
+        <v>260.089</v>
       </c>
       <c r="C54" s="1">
-        <v>2754.9</v>
+        <v>2701</v>
       </c>
       <c r="D54" s="1">
-        <v>15.97</v>
+        <v>16.07</v>
       </c>
       <c r="E54" s="1"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>837.68399999999997</v>
+        <v>826.59100000000001</v>
       </c>
       <c r="B55" s="1">
-        <v>1018.245</v>
+        <v>1018.324</v>
       </c>
       <c r="C55" s="1">
-        <v>2854.6</v>
+        <v>2800.7</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
@@ -1177,73 +1177,73 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>870.096</v>
+        <v>855.43</v>
       </c>
       <c r="B56" s="1">
-        <v>1789.6569999999999</v>
+        <v>1792.174</v>
       </c>
       <c r="C56" s="1">
-        <v>2854.6</v>
+        <v>2800.7</v>
       </c>
       <c r="D56" s="1">
-        <v>-16</v>
+        <v>-15.9</v>
       </c>
       <c r="E56" s="1"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>863.03599999999994</v>
+        <v>849.58399999999995</v>
       </c>
       <c r="B57" s="1">
-        <v>1675.0440000000001</v>
+        <v>1697.3789999999999</v>
       </c>
       <c r="C57" s="1">
-        <v>2854.6</v>
+        <v>2800.7</v>
       </c>
       <c r="D57" s="1">
-        <v>-13.93</v>
+        <v>-14.1</v>
       </c>
       <c r="E57" s="1"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>857.81100000000004</v>
+        <v>844.07600000000002</v>
       </c>
       <c r="B58" s="1">
-        <v>1583.7729999999999</v>
+        <v>1593.0609999999999</v>
       </c>
       <c r="C58" s="1">
-        <v>2854.6</v>
+        <v>2800.7</v>
       </c>
       <c r="D58" s="1">
-        <v>-11.9</v>
+        <v>-12.03</v>
       </c>
       <c r="E58" s="1"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>852.98900000000003</v>
+        <v>839.48599999999999</v>
       </c>
       <c r="B59" s="1">
-        <v>1492.6679999999999</v>
+        <v>1494.0740000000001</v>
       </c>
       <c r="C59" s="1">
-        <v>2854.6</v>
+        <v>2800.7</v>
       </c>
       <c r="D59" s="1">
-        <v>-10</v>
+        <v>-10.029999999999999</v>
       </c>
       <c r="E59" s="1"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>848.79600000000005</v>
+        <v>835.5</v>
       </c>
       <c r="B60" s="1">
-        <v>1396.829</v>
+        <v>1396.441</v>
       </c>
       <c r="C60" s="1">
-        <v>2854.6</v>
+        <v>2800.7</v>
       </c>
       <c r="D60" s="1">
         <v>-8</v>
@@ -1252,193 +1252,193 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <v>844.97799999999995</v>
+        <v>832.45899999999995</v>
       </c>
       <c r="B61" s="1">
-        <v>1300.604</v>
+        <v>1300.0170000000001</v>
       </c>
       <c r="C61" s="1">
-        <v>2854.6</v>
+        <v>2800.7</v>
       </c>
       <c r="D61" s="1">
-        <v>-6</v>
+        <v>-5.97</v>
       </c>
       <c r="E61" s="1"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>841.93</v>
+        <v>829.84799999999996</v>
       </c>
       <c r="B62" s="1">
-        <v>1205.626</v>
+        <v>1206.6099999999999</v>
       </c>
       <c r="C62" s="1">
-        <v>2854.6</v>
+        <v>2800.7</v>
       </c>
       <c r="D62" s="1">
-        <v>-3.98</v>
+        <v>-4</v>
       </c>
       <c r="E62" s="1"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <v>839.36599999999999</v>
+        <v>828.08500000000004</v>
       </c>
       <c r="B63" s="1">
-        <v>1111.6199999999999</v>
+        <v>1111.2429999999999</v>
       </c>
       <c r="C63" s="1">
-        <v>2854.6</v>
+        <v>2800.7</v>
       </c>
       <c r="D63" s="1">
-        <v>-1.98</v>
+        <v>-1.97</v>
       </c>
       <c r="E63" s="1"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>837.68399999999997</v>
+        <v>826.6</v>
       </c>
       <c r="B64" s="1">
-        <v>1018.201</v>
+        <v>1017.432</v>
       </c>
       <c r="C64" s="1">
-        <v>2854.6</v>
+        <v>2800.7</v>
       </c>
       <c r="D64" s="1">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E64" s="1"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>836.45</v>
+        <v>826.5</v>
       </c>
       <c r="B65" s="1">
-        <v>924.25400000000002</v>
+        <v>925.101</v>
       </c>
       <c r="C65" s="1">
-        <v>2854.6</v>
+        <v>2800.7</v>
       </c>
       <c r="D65" s="1">
-        <v>2.02</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="E65" s="1"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>835.99300000000005</v>
+        <v>826.49300000000005</v>
       </c>
       <c r="B66" s="1">
-        <v>830.50800000000004</v>
+        <v>831.98599999999999</v>
       </c>
       <c r="C66" s="1">
-        <v>2854.6</v>
+        <v>2800.7</v>
       </c>
       <c r="D66" s="1">
-        <v>4.0199999999999996</v>
+        <v>4.05</v>
       </c>
       <c r="E66" s="1"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <v>836.31200000000001</v>
+        <v>827.04399999999998</v>
       </c>
       <c r="B67" s="1">
-        <v>737.26499999999999</v>
+        <v>738.38499999999999</v>
       </c>
       <c r="C67" s="1">
-        <v>2854.6</v>
+        <v>2800.7</v>
       </c>
       <c r="D67" s="1">
-        <v>6</v>
+        <v>6.05</v>
       </c>
       <c r="E67" s="1"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>836.91899999999998</v>
+        <v>828.529</v>
       </c>
       <c r="B68" s="1">
-        <v>640.63499999999999</v>
+        <v>645.04999999999995</v>
       </c>
       <c r="C68" s="1">
-        <v>2854.6</v>
+        <v>2800.7</v>
       </c>
       <c r="D68" s="1">
-        <v>8</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="E68" s="1"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <v>838.39599999999996</v>
+        <v>830.41800000000001</v>
       </c>
       <c r="B69" s="1">
-        <v>545.024</v>
+        <v>550.90499999999997</v>
       </c>
       <c r="C69" s="1">
-        <v>2854.6</v>
+        <v>2800.7</v>
       </c>
       <c r="D69" s="1">
-        <v>10</v>
+        <v>10.07</v>
       </c>
       <c r="E69" s="1"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <v>840.48599999999999</v>
+        <v>833.00800000000004</v>
       </c>
       <c r="B70" s="1">
-        <v>447.20299999999997</v>
+        <v>456.70299999999997</v>
       </c>
       <c r="C70" s="1">
-        <v>2854.6</v>
+        <v>2800.7</v>
       </c>
       <c r="D70" s="1">
-        <v>11.97</v>
+        <v>12.05</v>
       </c>
       <c r="E70" s="1"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>843.08100000000002</v>
+        <v>836.07799999999997</v>
       </c>
       <c r="B71" s="1">
-        <v>346.18400000000003</v>
+        <v>360.31</v>
       </c>
       <c r="C71" s="1">
-        <v>2854.6</v>
+        <v>2800.7</v>
       </c>
       <c r="D71" s="1">
-        <v>13.97</v>
+        <v>14.05</v>
       </c>
       <c r="E71" s="1"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
-        <v>846.62199999999996</v>
+        <v>840.00099999999998</v>
       </c>
       <c r="B72" s="1">
-        <v>243.66900000000001</v>
+        <v>262.37599999999998</v>
       </c>
       <c r="C72" s="1">
-        <v>2854.6</v>
+        <v>2800.7</v>
       </c>
       <c r="D72" s="1">
-        <v>15.97</v>
+        <v>16.05</v>
       </c>
       <c r="E72" s="1"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
-        <v>823.07399999999996</v>
+        <v>811.57</v>
       </c>
       <c r="B73" s="1">
-        <v>1017.995</v>
+        <v>1018.224</v>
       </c>
       <c r="C73" s="1">
-        <v>2954.3</v>
+        <v>2900.4</v>
       </c>
       <c r="D73" s="1">
         <v>0</v>
@@ -1447,73 +1447,73 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
-        <v>855.09699999999998</v>
+        <v>839.66399999999999</v>
       </c>
       <c r="B74" s="1">
-        <v>1788.3440000000001</v>
+        <v>1791.6289999999999</v>
       </c>
       <c r="C74" s="1">
-        <v>2954.3</v>
+        <v>2900.4</v>
       </c>
       <c r="D74" s="1">
-        <v>-16.02</v>
+        <v>-15.9</v>
       </c>
       <c r="E74" s="1"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
-        <v>849.06600000000003</v>
+        <v>834.05899999999997</v>
       </c>
       <c r="B75" s="1">
-        <v>1687.953</v>
+        <v>1696.1579999999999</v>
       </c>
       <c r="C75" s="1">
-        <v>2954.3</v>
+        <v>2900.4</v>
       </c>
       <c r="D75" s="1">
-        <v>-14.05</v>
+        <v>-14.1</v>
       </c>
       <c r="E75" s="1"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
-        <v>843.14499999999998</v>
+        <v>828.66300000000001</v>
       </c>
       <c r="B76" s="1">
-        <v>1586.933</v>
+        <v>1592.6590000000001</v>
       </c>
       <c r="C76" s="1">
-        <v>2954.3</v>
+        <v>2900.4</v>
       </c>
       <c r="D76" s="1">
-        <v>-12</v>
+        <v>-12.03</v>
       </c>
       <c r="E76" s="1"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
-        <v>838.19299999999998</v>
+        <v>824.38</v>
       </c>
       <c r="B77" s="1">
-        <v>1490.1089999999999</v>
+        <v>1494.069</v>
       </c>
       <c r="C77" s="1">
-        <v>2954.3</v>
+        <v>2900.4</v>
       </c>
       <c r="D77" s="1">
-        <v>-9.9700000000000006</v>
+        <v>-10.029999999999999</v>
       </c>
       <c r="E77" s="1"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
-        <v>834.00400000000002</v>
+        <v>820.48699999999997</v>
       </c>
       <c r="B78" s="1">
-        <v>1395.0029999999999</v>
+        <v>1396.4369999999999</v>
       </c>
       <c r="C78" s="1">
-        <v>2954.3</v>
+        <v>2900.4</v>
       </c>
       <c r="D78" s="1">
         <v>-8</v>
@@ -1522,43 +1522,43 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
-        <v>830.33799999999997</v>
+        <v>817.44799999999998</v>
       </c>
       <c r="B79" s="1">
-        <v>1299.6120000000001</v>
+        <v>1299.9939999999999</v>
       </c>
       <c r="C79" s="1">
-        <v>2954.3</v>
+        <v>2900.4</v>
       </c>
       <c r="D79" s="1">
-        <v>-6</v>
+        <v>-5.97</v>
       </c>
       <c r="E79" s="1"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
-        <v>827.19500000000005</v>
+        <v>814.721</v>
       </c>
       <c r="B80" s="1">
-        <v>1204.221</v>
+        <v>1207.183</v>
       </c>
       <c r="C80" s="1">
-        <v>2954.3</v>
+        <v>2900.4</v>
       </c>
       <c r="D80" s="1">
-        <v>-3.97</v>
+        <v>-4</v>
       </c>
       <c r="E80" s="1"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
-        <v>824.99699999999996</v>
+        <v>812.92399999999998</v>
       </c>
       <c r="B81" s="1">
-        <v>1110.7829999999999</v>
+        <v>1111.675</v>
       </c>
       <c r="C81" s="1">
-        <v>2954.3</v>
+        <v>2900.4</v>
       </c>
       <c r="D81" s="1">
         <v>-1.97</v>
@@ -1567,148 +1567,148 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
-        <v>823.06899999999996</v>
+        <v>811.71500000000003</v>
       </c>
       <c r="B82" s="1">
-        <v>1018.135</v>
+        <v>1018.056</v>
       </c>
       <c r="C82" s="1">
-        <v>2954.3</v>
+        <v>2900.4</v>
       </c>
       <c r="D82" s="1">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="E82" s="1"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
-        <v>822.03300000000002</v>
+        <v>811.49300000000005</v>
       </c>
       <c r="B83" s="1">
-        <v>923.74599999999998</v>
+        <v>924.76</v>
       </c>
       <c r="C83" s="1">
-        <v>2954.3</v>
+        <v>2900.4</v>
       </c>
       <c r="D83" s="1">
-        <v>2.0299999999999998</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="E83" s="1"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
-        <v>821.54899999999998</v>
+        <v>811.33299999999997</v>
       </c>
       <c r="B84" s="1">
-        <v>830.72199999999998</v>
+        <v>832.42600000000004</v>
       </c>
       <c r="C84" s="1">
-        <v>2954.3</v>
+        <v>2900.4</v>
       </c>
       <c r="D84" s="1">
-        <v>4.03</v>
+        <v>4.05</v>
       </c>
       <c r="E84" s="1"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
-        <v>821.60199999999998</v>
+        <v>812.03099999999995</v>
       </c>
       <c r="B85" s="1">
-        <v>736.88699999999994</v>
+        <v>739.44799999999998</v>
       </c>
       <c r="C85" s="1">
-        <v>2954.3</v>
+        <v>2900.4</v>
       </c>
       <c r="D85" s="1">
-        <v>5.98</v>
+        <v>6.05</v>
       </c>
       <c r="E85" s="1"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
-        <v>822.5</v>
+        <v>813.11199999999997</v>
       </c>
       <c r="B86" s="1">
-        <v>640.00599999999997</v>
+        <v>645.91300000000001</v>
       </c>
       <c r="C86" s="1">
-        <v>2954.3</v>
+        <v>2900.4</v>
       </c>
       <c r="D86" s="1">
-        <v>8.0299999999999994</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="E86" s="1"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
-        <v>823.89200000000005</v>
+        <v>815.10400000000004</v>
       </c>
       <c r="B87" s="1">
-        <v>543.95899999999995</v>
+        <v>551.32299999999998</v>
       </c>
       <c r="C87" s="1">
-        <v>2954.3</v>
+        <v>2900.4</v>
       </c>
       <c r="D87" s="1">
-        <v>9.98</v>
+        <v>10.07</v>
       </c>
       <c r="E87" s="1"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
-        <v>825.95899999999995</v>
+        <v>817.73900000000003</v>
       </c>
       <c r="B88" s="1">
-        <v>446.79399999999998</v>
+        <v>457.83</v>
       </c>
       <c r="C88" s="1">
-        <v>2954.3</v>
+        <v>2900.4</v>
       </c>
       <c r="D88" s="1">
-        <v>11.98</v>
+        <v>12.05</v>
       </c>
       <c r="E88" s="1"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
-        <v>828.58600000000001</v>
+        <v>820.58500000000004</v>
       </c>
       <c r="B89" s="1">
-        <v>345.06400000000002</v>
+        <v>361.19799999999998</v>
       </c>
       <c r="C89" s="1">
-        <v>2954.3</v>
+        <v>2900.4</v>
       </c>
       <c r="D89" s="1">
-        <v>13.98</v>
+        <v>14.05</v>
       </c>
       <c r="E89" s="1"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
-        <v>831.68100000000004</v>
+        <v>824.23800000000006</v>
       </c>
       <c r="B90" s="1">
-        <v>242.28299999999999</v>
+        <v>263.161</v>
       </c>
       <c r="C90" s="1">
-        <v>2954.3</v>
+        <v>2900.4</v>
       </c>
       <c r="D90" s="1">
-        <v>15.98</v>
+        <v>16.05</v>
       </c>
       <c r="E90" s="1"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
-        <v>809.971</v>
+        <v>797.6</v>
       </c>
       <c r="B91" s="1">
-        <v>1018.006</v>
+        <v>1018.1079999999999</v>
       </c>
       <c r="C91" s="1">
-        <v>3053.9</v>
+        <v>3000</v>
       </c>
       <c r="D91" s="1">
         <v>0</v>
@@ -1717,103 +1717,103 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
-        <v>841.18700000000001</v>
+        <v>825.21500000000003</v>
       </c>
       <c r="B92" s="1">
-        <v>1786.751</v>
+        <v>1790.2470000000001</v>
       </c>
       <c r="C92" s="1">
-        <v>3053.9</v>
+        <v>3000</v>
       </c>
       <c r="D92" s="1">
-        <v>-16.02</v>
+        <v>-15.93</v>
       </c>
       <c r="E92" s="1"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
-        <v>835.1</v>
+        <v>819.57500000000005</v>
       </c>
       <c r="B93" s="1">
-        <v>1687.432</v>
+        <v>1694.048</v>
       </c>
       <c r="C93" s="1">
-        <v>3053.9</v>
+        <v>3000</v>
       </c>
       <c r="D93" s="1">
-        <v>-14.05</v>
+        <v>-14.07</v>
       </c>
       <c r="E93" s="1"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
-        <v>829.46</v>
+        <v>814.46299999999997</v>
       </c>
       <c r="B94" s="1">
-        <v>1585.42</v>
+        <v>1591.6489999999999</v>
       </c>
       <c r="C94" s="1">
-        <v>3053.9</v>
+        <v>3000</v>
       </c>
       <c r="D94" s="1">
-        <v>-12</v>
+        <v>-12.05</v>
       </c>
       <c r="E94" s="1"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
-        <v>824.82299999999998</v>
+        <v>809.90099999999995</v>
       </c>
       <c r="B95" s="1">
-        <v>1488.895</v>
+        <v>1491.9449999999999</v>
       </c>
       <c r="C95" s="1">
-        <v>3053.9</v>
+        <v>3000</v>
       </c>
       <c r="D95" s="1">
-        <v>-9.9700000000000006</v>
+        <v>-10</v>
       </c>
       <c r="E95" s="1"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
-        <v>820.649</v>
+        <v>806.38900000000001</v>
       </c>
       <c r="B96" s="1">
-        <v>1394.3150000000001</v>
+        <v>1395.261</v>
       </c>
       <c r="C96" s="1">
-        <v>3053.9</v>
+        <v>3000</v>
       </c>
       <c r="D96" s="1">
-        <v>-8</v>
+        <v>-8.0299999999999994</v>
       </c>
       <c r="E96" s="1"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
-        <v>816.97799999999995</v>
+        <v>803.34100000000001</v>
       </c>
       <c r="B97" s="1">
-        <v>1298.6890000000001</v>
+        <v>1298.6980000000001</v>
       </c>
       <c r="C97" s="1">
-        <v>3053.9</v>
+        <v>3000</v>
       </c>
       <c r="D97" s="1">
-        <v>-5.97</v>
+        <v>-5.98</v>
       </c>
       <c r="E97" s="1"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
-        <v>813.99</v>
+        <v>800.54600000000005</v>
       </c>
       <c r="B98" s="1">
-        <v>1205.2529999999999</v>
+        <v>1204.269</v>
       </c>
       <c r="C98" s="1">
-        <v>3053.9</v>
+        <v>3000</v>
       </c>
       <c r="D98" s="1">
         <v>-4</v>
@@ -1822,151 +1822,151 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
-        <v>811.64499999999998</v>
+        <v>798.98800000000006</v>
       </c>
       <c r="B99" s="1">
-        <v>1110.78</v>
+        <v>1110.3009999999999</v>
       </c>
       <c r="C99" s="1">
-        <v>3053.9</v>
+        <v>3000</v>
       </c>
       <c r="D99" s="1">
-        <v>-1.97</v>
+        <v>-1.98</v>
       </c>
       <c r="E99" s="1"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
-        <v>809.96600000000001</v>
+        <v>797.58699999999999</v>
       </c>
       <c r="B100" s="1">
-        <v>1017.024</v>
+        <v>1016.419</v>
       </c>
       <c r="C100" s="1">
-        <v>3053.9</v>
+        <v>3000</v>
       </c>
       <c r="D100" s="1">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="E100" s="1"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
-        <v>808.85</v>
+        <v>797.48299999999995</v>
       </c>
       <c r="B101" s="1">
-        <v>925.024</v>
+        <v>923.71600000000001</v>
       </c>
       <c r="C101" s="1">
-        <v>3053.9</v>
+        <v>3000</v>
       </c>
       <c r="D101" s="1">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="E101" s="1"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
-        <v>808.21199999999999</v>
+        <v>797.45799999999997</v>
       </c>
       <c r="B102" s="1">
-        <v>830.41700000000003</v>
+        <v>831.19399999999996</v>
       </c>
       <c r="C102" s="1">
-        <v>3053.9</v>
+        <v>3000</v>
       </c>
       <c r="D102" s="1">
-        <v>4.03</v>
+        <v>4.05</v>
       </c>
       <c r="E102" s="1"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
-        <v>808.38599999999997</v>
+        <v>797.95100000000002</v>
       </c>
       <c r="B103" s="1">
-        <v>736.42899999999997</v>
+        <v>737.96900000000005</v>
       </c>
       <c r="C103" s="1">
-        <v>3053.9</v>
+        <v>3000</v>
       </c>
       <c r="D103" s="1">
-        <v>6</v>
+        <v>6.07</v>
       </c>
       <c r="E103" s="1"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
-        <v>808.93200000000002</v>
+        <v>799.09</v>
       </c>
       <c r="B104" s="1">
-        <v>640.70899999999995</v>
+        <v>645.48</v>
       </c>
       <c r="C104" s="1">
-        <v>3053.9</v>
+        <v>3000</v>
       </c>
       <c r="D104" s="1">
-        <v>8</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="E104" s="1"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
-        <v>810.13599999999997</v>
+        <v>800.97799999999995</v>
       </c>
       <c r="B105" s="1">
-        <v>544.41</v>
+        <v>551.37800000000004</v>
       </c>
       <c r="C105" s="1">
-        <v>3053.9</v>
+        <v>3000</v>
       </c>
       <c r="D105" s="1">
-        <v>9.98</v>
+        <v>10.07</v>
       </c>
       <c r="E105" s="1"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
-        <v>812.12900000000002</v>
+        <v>803.43899999999996</v>
       </c>
       <c r="B106" s="1">
-        <v>444.77699999999999</v>
+        <v>457.82499999999999</v>
       </c>
       <c r="C106" s="1">
-        <v>3053.9</v>
+        <v>3000</v>
       </c>
       <c r="D106" s="1">
-        <v>12</v>
+        <v>12.05</v>
       </c>
       <c r="E106" s="1"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
-        <v>814.80700000000002</v>
+        <v>806.43799999999999</v>
       </c>
       <c r="B107" s="1">
-        <v>347.029</v>
+        <v>361.13799999999998</v>
       </c>
       <c r="C107" s="1">
-        <v>3053.9</v>
+        <v>3000</v>
       </c>
       <c r="D107" s="1">
-        <v>13.98</v>
+        <v>14.05</v>
       </c>
       <c r="E107" s="1"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
-        <v>817.83500000000004</v>
+        <v>809.92899999999997</v>
       </c>
       <c r="B108" s="1">
-        <v>245.244</v>
+        <v>263.57</v>
       </c>
       <c r="C108" s="1">
-        <v>3053.9</v>
+        <v>3000</v>
       </c>
       <c r="D108" s="1">
-        <v>15.95</v>
+        <v>16.05</v>
       </c>
       <c r="E108" s="1"/>
     </row>

--- a/Cam6calib.xlsx
+++ b/Cam6calib.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FDA79D-9A72-47F8-995C-08FCE84526D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127FC588-6224-46AC-8E5E-E71188BB9472}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22363" yWindow="3917" windowWidth="16191" windowHeight="13217" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6454" yWindow="4234" windowWidth="16192" windowHeight="13226" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -352,13 +352,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
-        <v>879.30200000000002</v>
+        <v>831.89599999999996</v>
       </c>
       <c r="B1" s="1">
-        <v>1018.398</v>
+        <v>1018.056</v>
       </c>
       <c r="C1" s="1">
-        <v>2501.6</v>
+        <v>2504.1999999999998</v>
       </c>
       <c r="D1" s="1">
         <v>0</v>
@@ -367,133 +367,133 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>909.84900000000005</v>
+        <v>858.02800000000002</v>
       </c>
       <c r="B2" s="1">
-        <v>1795.6890000000001</v>
+        <v>1785.903</v>
       </c>
       <c r="C2" s="1">
-        <v>2501.6</v>
+        <v>2504.1999999999998</v>
       </c>
       <c r="D2" s="1">
-        <v>-15.95</v>
+        <v>-16.100000000000001</v>
       </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>903.52300000000002</v>
+        <v>852.48500000000001</v>
       </c>
       <c r="B3" s="1">
-        <v>1697.4469999999999</v>
+        <v>1678.982</v>
       </c>
       <c r="C3" s="1">
-        <v>2501.6</v>
+        <v>2504.1999999999998</v>
       </c>
       <c r="D3" s="1">
-        <v>-14.08</v>
+        <v>-13.97</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>897.54499999999996</v>
+        <v>847.56500000000005</v>
       </c>
       <c r="B4" s="1">
-        <v>1594.569</v>
+        <v>1580.9829999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>2501.6</v>
+        <v>2504.1999999999998</v>
       </c>
       <c r="D4" s="1">
-        <v>-12.03</v>
+        <v>-11.95</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>892.56100000000004</v>
+        <v>843.66300000000001</v>
       </c>
       <c r="B5" s="1">
-        <v>1495.4469999999999</v>
+        <v>1484.6410000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>2501.6</v>
+        <v>2504.1999999999998</v>
       </c>
       <c r="D5" s="1">
-        <v>-10.029999999999999</v>
+        <v>-9.9499999999999993</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>888.35699999999997</v>
+        <v>840.39300000000003</v>
       </c>
       <c r="B6" s="1">
-        <v>1396.8489999999999</v>
+        <v>1389.597</v>
       </c>
       <c r="C6" s="1">
-        <v>2501.6</v>
+        <v>2504.1999999999998</v>
       </c>
       <c r="D6" s="1">
-        <v>-8</v>
+        <v>-7.9</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>885.01800000000003</v>
+        <v>837.49800000000005</v>
       </c>
       <c r="B7" s="1">
-        <v>1300.6199999999999</v>
+        <v>1297.7329999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>2501.6</v>
+        <v>2504.1999999999998</v>
       </c>
       <c r="D7" s="1">
-        <v>-6</v>
+        <v>-5.97</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>882.30399999999997</v>
+        <v>834.92700000000002</v>
       </c>
       <c r="B8" s="1">
-        <v>1204.7249999999999</v>
+        <v>1202.9459999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>2501.6</v>
+        <v>2504.1999999999998</v>
       </c>
       <c r="D8" s="1">
-        <v>-3.97</v>
+        <v>-3.92</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>880.5</v>
+        <v>833.09699999999998</v>
       </c>
       <c r="B9" s="1">
-        <v>1111.009</v>
+        <v>1111.193</v>
       </c>
       <c r="C9" s="1">
-        <v>2501.6</v>
+        <v>2504.1999999999998</v>
       </c>
       <c r="D9" s="1">
-        <v>-1.97</v>
+        <v>-1.95</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>879.31899999999996</v>
+        <v>831.86800000000005</v>
       </c>
       <c r="B10" s="1">
-        <v>1016.696</v>
+        <v>1017.395</v>
       </c>
       <c r="C10" s="1">
-        <v>2501.6</v>
+        <v>2504.1999999999998</v>
       </c>
       <c r="D10" s="1">
         <v>0.03</v>
@@ -502,58 +502,58 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>878.91099999999994</v>
+        <v>831.00099999999998</v>
       </c>
       <c r="B11" s="1">
-        <v>923.125</v>
+        <v>922.96400000000006</v>
       </c>
       <c r="C11" s="1">
-        <v>2501.6</v>
+        <v>2504.1999999999998</v>
       </c>
       <c r="D11" s="1">
-        <v>2.0299999999999998</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>878.98599999999999</v>
+        <v>830.92899999999997</v>
       </c>
       <c r="B12" s="1">
-        <v>829.59900000000005</v>
+        <v>829.60299999999995</v>
       </c>
       <c r="C12" s="1">
-        <v>2501.6</v>
+        <v>2504.1999999999998</v>
       </c>
       <c r="D12" s="1">
-        <v>4.05</v>
+        <v>4.03</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>879.98699999999997</v>
+        <v>830.99400000000003</v>
       </c>
       <c r="B13" s="1">
-        <v>735.79200000000003</v>
+        <v>734.78800000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>2501.6</v>
+        <v>2504.1999999999998</v>
       </c>
       <c r="D13" s="1">
-        <v>6.05</v>
+        <v>6.03</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>881.404</v>
+        <v>831.97</v>
       </c>
       <c r="B14" s="1">
-        <v>641.76400000000001</v>
+        <v>639.33100000000002</v>
       </c>
       <c r="C14" s="1">
-        <v>2501.6</v>
+        <v>2504.1999999999998</v>
       </c>
       <c r="D14" s="1">
         <v>8.0500000000000007</v>
@@ -562,73 +562,73 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>883.75699999999995</v>
+        <v>833.46</v>
       </c>
       <c r="B15" s="1">
-        <v>546.91999999999996</v>
+        <v>544.17100000000005</v>
       </c>
       <c r="C15" s="1">
-        <v>2501.6</v>
+        <v>2504.1999999999998</v>
       </c>
       <c r="D15" s="1">
-        <v>10.07</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>886.83299999999997</v>
+        <v>835.39200000000005</v>
       </c>
       <c r="B16" s="1">
-        <v>453.09100000000001</v>
+        <v>447.87099999999998</v>
       </c>
       <c r="C16" s="1">
-        <v>2501.6</v>
+        <v>2504.1999999999998</v>
       </c>
       <c r="D16" s="1">
-        <v>12.05</v>
+        <v>12.02</v>
       </c>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>890.05200000000002</v>
+        <v>837.976</v>
       </c>
       <c r="B17" s="1">
-        <v>356.267</v>
+        <v>348.82299999999998</v>
       </c>
       <c r="C17" s="1">
-        <v>2501.6</v>
+        <v>2504.1999999999998</v>
       </c>
       <c r="D17" s="1">
-        <v>14.05</v>
+        <v>14.02</v>
       </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>894.34299999999996</v>
+        <v>840.74699999999996</v>
       </c>
       <c r="B18" s="1">
-        <v>256.678</v>
+        <v>248.19300000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>2501.6</v>
+        <v>2504.1999999999998</v>
       </c>
       <c r="D18" s="1">
-        <v>16.07</v>
+        <v>16.05</v>
       </c>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>860.5</v>
+        <v>812.96400000000006</v>
       </c>
       <c r="B19" s="1">
-        <v>1018.3339999999999</v>
+        <v>1018.32</v>
       </c>
       <c r="C19" s="1">
-        <v>2601.3000000000002</v>
+        <v>2603.9</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -637,133 +637,133 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>890.404</v>
+        <v>838.19</v>
       </c>
       <c r="B20" s="1">
-        <v>1794.52</v>
+        <v>1784.259</v>
       </c>
       <c r="C20" s="1">
-        <v>2601.3000000000002</v>
+        <v>2603.9</v>
       </c>
       <c r="D20" s="1">
-        <v>-15.93</v>
+        <v>-16.100000000000001</v>
       </c>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>884.38300000000004</v>
+        <v>833.04600000000005</v>
       </c>
       <c r="B21" s="1">
-        <v>1698.1569999999999</v>
+        <v>1678.126</v>
       </c>
       <c r="C21" s="1">
-        <v>2601.3000000000002</v>
+        <v>2603.9</v>
       </c>
       <c r="D21" s="1">
-        <v>-14.07</v>
+        <v>-13.97</v>
       </c>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>878.50300000000004</v>
+        <v>828.476</v>
       </c>
       <c r="B22" s="1">
-        <v>1595.68</v>
+        <v>1580.1210000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>2601.3000000000002</v>
+        <v>2603.9</v>
       </c>
       <c r="D22" s="1">
-        <v>-12.02</v>
+        <v>-11.95</v>
       </c>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>873.50099999999998</v>
+        <v>824.51300000000003</v>
       </c>
       <c r="B23" s="1">
-        <v>1496.395</v>
+        <v>1483.4939999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>2601.3000000000002</v>
+        <v>2603.9</v>
       </c>
       <c r="D23" s="1">
-        <v>-10.02</v>
+        <v>-9.9499999999999993</v>
       </c>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>869.45899999999995</v>
+        <v>821.36</v>
       </c>
       <c r="B24" s="1">
-        <v>1397.6010000000001</v>
+        <v>1388.655</v>
       </c>
       <c r="C24" s="1">
-        <v>2601.3000000000002</v>
+        <v>2603.9</v>
       </c>
       <c r="D24" s="1">
-        <v>-8</v>
+        <v>-7.93</v>
       </c>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>866.12900000000002</v>
+        <v>818.48599999999999</v>
       </c>
       <c r="B25" s="1">
-        <v>1301.5150000000001</v>
+        <v>1295.556</v>
       </c>
       <c r="C25" s="1">
-        <v>2601.3000000000002</v>
+        <v>2603.9</v>
       </c>
       <c r="D25" s="1">
-        <v>-6</v>
+        <v>-5.95</v>
       </c>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>863.47299999999996</v>
+        <v>815.88800000000003</v>
       </c>
       <c r="B26" s="1">
-        <v>1206.7850000000001</v>
+        <v>1202.317</v>
       </c>
       <c r="C26" s="1">
-        <v>2601.3000000000002</v>
+        <v>2603.9</v>
       </c>
       <c r="D26" s="1">
-        <v>-4</v>
+        <v>-3.93</v>
       </c>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>861.53700000000003</v>
+        <v>814.37800000000004</v>
       </c>
       <c r="B27" s="1">
-        <v>1111.3579999999999</v>
+        <v>1109.904</v>
       </c>
       <c r="C27" s="1">
-        <v>2601.3000000000002</v>
+        <v>2603.9</v>
       </c>
       <c r="D27" s="1">
-        <v>-1.97</v>
+        <v>-1.95</v>
       </c>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>860.49300000000005</v>
+        <v>812.93600000000004</v>
       </c>
       <c r="B28" s="1">
-        <v>1017.283</v>
+        <v>1016.982</v>
       </c>
       <c r="C28" s="1">
-        <v>2601.3000000000002</v>
+        <v>2603.9</v>
       </c>
       <c r="D28" s="1">
         <v>0.05</v>
@@ -772,13 +772,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>859.952</v>
+        <v>812.07899999999995</v>
       </c>
       <c r="B29" s="1">
-        <v>924.81899999999996</v>
+        <v>923.72299999999996</v>
       </c>
       <c r="C29" s="1">
-        <v>2601.3000000000002</v>
+        <v>2603.9</v>
       </c>
       <c r="D29" s="1">
         <v>2.0299999999999998</v>
@@ -787,43 +787,43 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>860.04700000000003</v>
+        <v>811.995</v>
       </c>
       <c r="B30" s="1">
-        <v>831.54899999999998</v>
+        <v>829.35</v>
       </c>
       <c r="C30" s="1">
-        <v>2601.3000000000002</v>
+        <v>2603.9</v>
       </c>
       <c r="D30" s="1">
-        <v>4.05</v>
+        <v>4.03</v>
       </c>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>860.98900000000003</v>
+        <v>812.00099999999998</v>
       </c>
       <c r="B31" s="1">
-        <v>737.89499999999998</v>
+        <v>734.98900000000003</v>
       </c>
       <c r="C31" s="1">
-        <v>2601.3000000000002</v>
+        <v>2603.9</v>
       </c>
       <c r="D31" s="1">
-        <v>6.05</v>
+        <v>6.03</v>
       </c>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>862.13900000000001</v>
+        <v>812.99300000000005</v>
       </c>
       <c r="B32" s="1">
-        <v>644.851</v>
+        <v>639.32100000000003</v>
       </c>
       <c r="C32" s="1">
-        <v>2601.3000000000002</v>
+        <v>2603.9</v>
       </c>
       <c r="D32" s="1">
         <v>8.0500000000000007</v>
@@ -832,73 +832,73 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>864.49300000000005</v>
+        <v>814.36199999999997</v>
       </c>
       <c r="B33" s="1">
-        <v>549.63</v>
+        <v>543.97400000000005</v>
       </c>
       <c r="C33" s="1">
-        <v>2601.3000000000002</v>
+        <v>2603.9</v>
       </c>
       <c r="D33" s="1">
-        <v>10.07</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>867.154</v>
+        <v>816.12699999999995</v>
       </c>
       <c r="B34" s="1">
-        <v>455.90600000000001</v>
+        <v>448.49900000000002</v>
       </c>
       <c r="C34" s="1">
-        <v>2601.3000000000002</v>
+        <v>2603.9</v>
       </c>
       <c r="D34" s="1">
-        <v>12.05</v>
+        <v>12.02</v>
       </c>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>870.80200000000002</v>
+        <v>818.32</v>
       </c>
       <c r="B35" s="1">
-        <v>359.38799999999998</v>
+        <v>349.839</v>
       </c>
       <c r="C35" s="1">
-        <v>2601.3000000000002</v>
+        <v>2603.9</v>
       </c>
       <c r="D35" s="1">
-        <v>14.05</v>
+        <v>14.02</v>
       </c>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>874.73400000000004</v>
+        <v>821.25900000000001</v>
       </c>
       <c r="B36" s="1">
-        <v>261.65199999999999</v>
+        <v>249.363</v>
       </c>
       <c r="C36" s="1">
-        <v>2601.3000000000002</v>
+        <v>2603.9</v>
       </c>
       <c r="D36" s="1">
-        <v>16.05</v>
+        <v>16.02</v>
       </c>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>843.02300000000002</v>
+        <v>795.48</v>
       </c>
       <c r="B37" s="1">
-        <v>1018.378</v>
+        <v>1018.225</v>
       </c>
       <c r="C37" s="1">
-        <v>2701</v>
+        <v>2703.6</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
@@ -907,178 +907,178 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>872.17</v>
+        <v>820.29</v>
       </c>
       <c r="B38" s="1">
-        <v>1792.79</v>
+        <v>1783.5350000000001</v>
       </c>
       <c r="C38" s="1">
-        <v>2701</v>
+        <v>2703.6</v>
       </c>
       <c r="D38" s="1">
-        <v>-15.9</v>
+        <v>-16.100000000000001</v>
       </c>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>866.38900000000001</v>
+        <v>814.85</v>
       </c>
       <c r="B39" s="1">
-        <v>1697.3589999999999</v>
+        <v>1677.335</v>
       </c>
       <c r="C39" s="1">
-        <v>2701</v>
+        <v>2703.6</v>
       </c>
       <c r="D39" s="1">
-        <v>-14.1</v>
+        <v>-13.97</v>
       </c>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>860.52099999999996</v>
+        <v>810.51</v>
       </c>
       <c r="B40" s="1">
-        <v>1593.5540000000001</v>
+        <v>1579.0840000000001</v>
       </c>
       <c r="C40" s="1">
-        <v>2701</v>
+        <v>2703.6</v>
       </c>
       <c r="D40" s="1">
-        <v>-12.03</v>
+        <v>-11.95</v>
       </c>
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>855.76599999999996</v>
+        <v>806.60500000000002</v>
       </c>
       <c r="B41" s="1">
-        <v>1494.7739999999999</v>
+        <v>1482.653</v>
       </c>
       <c r="C41" s="1">
-        <v>2701</v>
+        <v>2703.6</v>
       </c>
       <c r="D41" s="1">
-        <v>-10.029999999999999</v>
+        <v>-9.93</v>
       </c>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>851.76199999999994</v>
+        <v>803.51700000000005</v>
       </c>
       <c r="B42" s="1">
-        <v>1396.8969999999999</v>
+        <v>1389.279</v>
       </c>
       <c r="C42" s="1">
-        <v>2701</v>
+        <v>2703.6</v>
       </c>
       <c r="D42" s="1">
-        <v>-8</v>
+        <v>-7.95</v>
       </c>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>848.54200000000003</v>
+        <v>800.63199999999995</v>
       </c>
       <c r="B43" s="1">
-        <v>1300.2670000000001</v>
+        <v>1295.3520000000001</v>
       </c>
       <c r="C43" s="1">
-        <v>2701</v>
+        <v>2703.6</v>
       </c>
       <c r="D43" s="1">
-        <v>-6</v>
+        <v>-5.95</v>
       </c>
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>846.03800000000001</v>
+        <v>798.50199999999995</v>
       </c>
       <c r="B44" s="1">
-        <v>1204.934</v>
+        <v>1201.7529999999999</v>
       </c>
       <c r="C44" s="1">
-        <v>2701</v>
+        <v>2703.6</v>
       </c>
       <c r="D44" s="1">
-        <v>-3.97</v>
+        <v>-3.93</v>
       </c>
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>844.39</v>
+        <v>796.51199999999994</v>
       </c>
       <c r="B45" s="1">
-        <v>1111.5820000000001</v>
+        <v>1110.0640000000001</v>
       </c>
       <c r="C45" s="1">
-        <v>2701</v>
+        <v>2703.6</v>
       </c>
       <c r="D45" s="1">
-        <v>-1.97</v>
+        <v>-1.95</v>
       </c>
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>842.99300000000005</v>
+        <v>795.5</v>
       </c>
       <c r="B46" s="1">
-        <v>1017.456</v>
+        <v>1016.937</v>
       </c>
       <c r="C46" s="1">
-        <v>2701</v>
+        <v>2703.6</v>
       </c>
       <c r="D46" s="1">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>842.5</v>
+        <v>794.59900000000005</v>
       </c>
       <c r="B47" s="1">
-        <v>924.07299999999998</v>
+        <v>924.11</v>
       </c>
       <c r="C47" s="1">
-        <v>2701</v>
+        <v>2703.6</v>
       </c>
       <c r="D47" s="1">
-        <v>2.0499999999999998</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>842.53399999999999</v>
+        <v>794.10599999999999</v>
       </c>
       <c r="B48" s="1">
-        <v>831.56600000000003</v>
+        <v>829.75400000000002</v>
       </c>
       <c r="C48" s="1">
-        <v>2701</v>
+        <v>2703.6</v>
       </c>
       <c r="D48" s="1">
-        <v>4.05</v>
+        <v>4.03</v>
       </c>
       <c r="E48" s="1"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>843.14200000000005</v>
+        <v>794.55700000000002</v>
       </c>
       <c r="B49" s="1">
-        <v>738.8</v>
+        <v>735.13900000000001</v>
       </c>
       <c r="C49" s="1">
-        <v>2701</v>
+        <v>2703.6</v>
       </c>
       <c r="D49" s="1">
         <v>6.05</v>
@@ -1087,28 +1087,28 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>844.95399999999995</v>
+        <v>795.08500000000004</v>
       </c>
       <c r="B50" s="1">
-        <v>645.14</v>
+        <v>641.36699999999996</v>
       </c>
       <c r="C50" s="1">
-        <v>2701</v>
+        <v>2703.6</v>
       </c>
       <c r="D50" s="1">
-        <v>8.0500000000000007</v>
+        <v>8.02</v>
       </c>
       <c r="E50" s="1"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>846.98</v>
+        <v>796.47199999999998</v>
       </c>
       <c r="B51" s="1">
-        <v>550.66499999999996</v>
+        <v>545.13099999999997</v>
       </c>
       <c r="C51" s="1">
-        <v>2701</v>
+        <v>2703.6</v>
       </c>
       <c r="D51" s="1">
         <v>10.050000000000001</v>
@@ -1117,58 +1117,58 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>849.57100000000003</v>
+        <v>798.34699999999998</v>
       </c>
       <c r="B52" s="1">
-        <v>454.68</v>
+        <v>448.91699999999997</v>
       </c>
       <c r="C52" s="1">
-        <v>2701</v>
+        <v>2703.6</v>
       </c>
       <c r="D52" s="1">
-        <v>12.05</v>
+        <v>12.02</v>
       </c>
       <c r="E52" s="1"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>852.81700000000001</v>
+        <v>800.27</v>
       </c>
       <c r="B53" s="1">
-        <v>358.69799999999998</v>
+        <v>350.73099999999999</v>
       </c>
       <c r="C53" s="1">
-        <v>2701</v>
+        <v>2703.6</v>
       </c>
       <c r="D53" s="1">
-        <v>14.05</v>
+        <v>14.02</v>
       </c>
       <c r="E53" s="1"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>856.92399999999998</v>
+        <v>802.91700000000003</v>
       </c>
       <c r="B54" s="1">
-        <v>260.089</v>
+        <v>250.352</v>
       </c>
       <c r="C54" s="1">
-        <v>2701</v>
+        <v>2703.6</v>
       </c>
       <c r="D54" s="1">
-        <v>16.07</v>
+        <v>16.05</v>
       </c>
       <c r="E54" s="1"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>826.59100000000001</v>
+        <v>779.3</v>
       </c>
       <c r="B55" s="1">
-        <v>1018.324</v>
+        <v>1018.23</v>
       </c>
       <c r="C55" s="1">
-        <v>2800.7</v>
+        <v>2803.3</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
@@ -1177,133 +1177,133 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>855.43</v>
+        <v>803.34400000000005</v>
       </c>
       <c r="B56" s="1">
-        <v>1792.174</v>
+        <v>1782.713</v>
       </c>
       <c r="C56" s="1">
-        <v>2800.7</v>
+        <v>2803.3</v>
       </c>
       <c r="D56" s="1">
-        <v>-15.9</v>
+        <v>-16.100000000000001</v>
       </c>
       <c r="E56" s="1"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>849.58399999999995</v>
+        <v>798.33199999999999</v>
       </c>
       <c r="B57" s="1">
-        <v>1697.3789999999999</v>
+        <v>1676.941</v>
       </c>
       <c r="C57" s="1">
-        <v>2800.7</v>
+        <v>2803.3</v>
       </c>
       <c r="D57" s="1">
-        <v>-14.1</v>
+        <v>-13.97</v>
       </c>
       <c r="E57" s="1"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>844.07600000000002</v>
+        <v>794.01700000000005</v>
       </c>
       <c r="B58" s="1">
-        <v>1593.0609999999999</v>
+        <v>1579.046</v>
       </c>
       <c r="C58" s="1">
-        <v>2800.7</v>
+        <v>2803.3</v>
       </c>
       <c r="D58" s="1">
-        <v>-12.03</v>
+        <v>-11.95</v>
       </c>
       <c r="E58" s="1"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>839.48599999999999</v>
+        <v>790.48599999999999</v>
       </c>
       <c r="B59" s="1">
-        <v>1494.0740000000001</v>
+        <v>1482.7840000000001</v>
       </c>
       <c r="C59" s="1">
-        <v>2800.7</v>
+        <v>2803.3</v>
       </c>
       <c r="D59" s="1">
-        <v>-10.029999999999999</v>
+        <v>-9.93</v>
       </c>
       <c r="E59" s="1"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>835.5</v>
+        <v>787.42200000000003</v>
       </c>
       <c r="B60" s="1">
-        <v>1396.441</v>
+        <v>1389.2180000000001</v>
       </c>
       <c r="C60" s="1">
-        <v>2800.7</v>
+        <v>2803.3</v>
       </c>
       <c r="D60" s="1">
-        <v>-8</v>
+        <v>-7.95</v>
       </c>
       <c r="E60" s="1"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <v>832.45899999999995</v>
+        <v>784.49099999999999</v>
       </c>
       <c r="B61" s="1">
-        <v>1300.0170000000001</v>
+        <v>1295.3989999999999</v>
       </c>
       <c r="C61" s="1">
-        <v>2800.7</v>
+        <v>2803.3</v>
       </c>
       <c r="D61" s="1">
-        <v>-5.97</v>
+        <v>-5.95</v>
       </c>
       <c r="E61" s="1"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>829.84799999999996</v>
+        <v>782.44399999999996</v>
       </c>
       <c r="B62" s="1">
-        <v>1206.6099999999999</v>
+        <v>1202.2090000000001</v>
       </c>
       <c r="C62" s="1">
-        <v>2800.7</v>
+        <v>2803.3</v>
       </c>
       <c r="D62" s="1">
-        <v>-4</v>
+        <v>-3.93</v>
       </c>
       <c r="E62" s="1"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <v>828.08500000000004</v>
+        <v>780.50099999999998</v>
       </c>
       <c r="B63" s="1">
-        <v>1111.2429999999999</v>
+        <v>1110.0809999999999</v>
       </c>
       <c r="C63" s="1">
-        <v>2800.7</v>
+        <v>2803.3</v>
       </c>
       <c r="D63" s="1">
-        <v>-1.97</v>
+        <v>-1.95</v>
       </c>
       <c r="E63" s="1"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>826.6</v>
+        <v>779.5</v>
       </c>
       <c r="B64" s="1">
-        <v>1017.432</v>
+        <v>1035.857</v>
       </c>
       <c r="C64" s="1">
-        <v>2800.7</v>
+        <v>2803.3</v>
       </c>
       <c r="D64" s="1">
         <v>0.05</v>
@@ -1312,13 +1312,13 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>826.5</v>
+        <v>778.51300000000003</v>
       </c>
       <c r="B65" s="1">
-        <v>925.101</v>
+        <v>924.16600000000005</v>
       </c>
       <c r="C65" s="1">
-        <v>2800.7</v>
+        <v>2803.3</v>
       </c>
       <c r="D65" s="1">
         <v>2.0299999999999998</v>
@@ -1327,13 +1327,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>826.49300000000005</v>
+        <v>778.06600000000003</v>
       </c>
       <c r="B66" s="1">
-        <v>831.98599999999999</v>
+        <v>830.37099999999998</v>
       </c>
       <c r="C66" s="1">
-        <v>2800.7</v>
+        <v>2803.3</v>
       </c>
       <c r="D66" s="1">
         <v>4.05</v>
@@ -1342,28 +1342,28 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <v>827.04399999999998</v>
+        <v>778.09699999999998</v>
       </c>
       <c r="B67" s="1">
-        <v>738.38499999999999</v>
+        <v>736.86599999999999</v>
       </c>
       <c r="C67" s="1">
-        <v>2800.7</v>
+        <v>2803.3</v>
       </c>
       <c r="D67" s="1">
-        <v>6.05</v>
+        <v>6.03</v>
       </c>
       <c r="E67" s="1"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>828.529</v>
+        <v>778.98599999999999</v>
       </c>
       <c r="B68" s="1">
-        <v>645.04999999999995</v>
+        <v>641.70799999999997</v>
       </c>
       <c r="C68" s="1">
-        <v>2800.7</v>
+        <v>2803.3</v>
       </c>
       <c r="D68" s="1">
         <v>8.0500000000000007</v>
@@ -1372,58 +1372,58 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <v>830.41800000000001</v>
+        <v>779.99300000000005</v>
       </c>
       <c r="B69" s="1">
-        <v>550.90499999999997</v>
+        <v>547.49800000000005</v>
       </c>
       <c r="C69" s="1">
-        <v>2800.7</v>
+        <v>2803.3</v>
       </c>
       <c r="D69" s="1">
-        <v>10.07</v>
+        <v>10.02</v>
       </c>
       <c r="E69" s="1"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <v>833.00800000000004</v>
+        <v>781.55499999999995</v>
       </c>
       <c r="B70" s="1">
-        <v>456.70299999999997</v>
+        <v>449.61099999999999</v>
       </c>
       <c r="C70" s="1">
-        <v>2800.7</v>
+        <v>2803.3</v>
       </c>
       <c r="D70" s="1">
-        <v>12.05</v>
+        <v>12.02</v>
       </c>
       <c r="E70" s="1"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>836.07799999999997</v>
+        <v>783.91399999999999</v>
       </c>
       <c r="B71" s="1">
-        <v>360.31</v>
+        <v>351.26400000000001</v>
       </c>
       <c r="C71" s="1">
-        <v>2800.7</v>
+        <v>2803.3</v>
       </c>
       <c r="D71" s="1">
-        <v>14.05</v>
+        <v>14.02</v>
       </c>
       <c r="E71" s="1"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
-        <v>840.00099999999998</v>
+        <v>786.16700000000003</v>
       </c>
       <c r="B72" s="1">
-        <v>262.37599999999998</v>
+        <v>251.24700000000001</v>
       </c>
       <c r="C72" s="1">
-        <v>2800.7</v>
+        <v>2803.3</v>
       </c>
       <c r="D72" s="1">
         <v>16.05</v>
@@ -1432,13 +1432,13 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
-        <v>811.57</v>
+        <v>764.36</v>
       </c>
       <c r="B73" s="1">
-        <v>1018.224</v>
+        <v>1018.199</v>
       </c>
       <c r="C73" s="1">
-        <v>2900.4</v>
+        <v>2903</v>
       </c>
       <c r="D73" s="1">
         <v>0</v>
@@ -1447,133 +1447,133 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
-        <v>839.66399999999999</v>
+        <v>787.76599999999996</v>
       </c>
       <c r="B74" s="1">
-        <v>1791.6289999999999</v>
+        <v>1781.298</v>
       </c>
       <c r="C74" s="1">
-        <v>2900.4</v>
+        <v>2903</v>
       </c>
       <c r="D74" s="1">
-        <v>-15.9</v>
+        <v>-16.100000000000001</v>
       </c>
       <c r="E74" s="1"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
-        <v>834.05899999999997</v>
+        <v>782.572</v>
       </c>
       <c r="B75" s="1">
-        <v>1696.1579999999999</v>
+        <v>1674.606</v>
       </c>
       <c r="C75" s="1">
-        <v>2900.4</v>
+        <v>2903</v>
       </c>
       <c r="D75" s="1">
-        <v>-14.1</v>
+        <v>-13.95</v>
       </c>
       <c r="E75" s="1"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
-        <v>828.66300000000001</v>
+        <v>778.54</v>
       </c>
       <c r="B76" s="1">
-        <v>1592.6590000000001</v>
+        <v>1578.297</v>
       </c>
       <c r="C76" s="1">
-        <v>2900.4</v>
+        <v>2903</v>
       </c>
       <c r="D76" s="1">
-        <v>-12.03</v>
+        <v>-11.97</v>
       </c>
       <c r="E76" s="1"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
-        <v>824.38</v>
+        <v>775.173</v>
       </c>
       <c r="B77" s="1">
-        <v>1494.069</v>
+        <v>1481.2280000000001</v>
       </c>
       <c r="C77" s="1">
-        <v>2900.4</v>
+        <v>2903</v>
       </c>
       <c r="D77" s="1">
-        <v>-10.029999999999999</v>
+        <v>-9.93</v>
       </c>
       <c r="E77" s="1"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
-        <v>820.48699999999997</v>
+        <v>772.00800000000004</v>
       </c>
       <c r="B78" s="1">
-        <v>1396.4369999999999</v>
+        <v>1387.338</v>
       </c>
       <c r="C78" s="1">
-        <v>2900.4</v>
+        <v>2903</v>
       </c>
       <c r="D78" s="1">
-        <v>-8</v>
+        <v>-7.95</v>
       </c>
       <c r="E78" s="1"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
-        <v>817.44799999999998</v>
+        <v>769.38400000000001</v>
       </c>
       <c r="B79" s="1">
-        <v>1299.9939999999999</v>
+        <v>1293.7080000000001</v>
       </c>
       <c r="C79" s="1">
-        <v>2900.4</v>
+        <v>2903</v>
       </c>
       <c r="D79" s="1">
-        <v>-5.97</v>
+        <v>-5.93</v>
       </c>
       <c r="E79" s="1"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
-        <v>814.721</v>
+        <v>767.27300000000002</v>
       </c>
       <c r="B80" s="1">
-        <v>1207.183</v>
+        <v>1201.328</v>
       </c>
       <c r="C80" s="1">
-        <v>2900.4</v>
+        <v>2903</v>
       </c>
       <c r="D80" s="1">
-        <v>-4</v>
+        <v>-3.95</v>
       </c>
       <c r="E80" s="1"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
-        <v>812.92399999999998</v>
+        <v>765.48199999999997</v>
       </c>
       <c r="B81" s="1">
-        <v>1111.675</v>
+        <v>1108.4590000000001</v>
       </c>
       <c r="C81" s="1">
-        <v>2900.4</v>
+        <v>2903</v>
       </c>
       <c r="D81" s="1">
-        <v>-1.97</v>
+        <v>-1.93</v>
       </c>
       <c r="E81" s="1"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
-        <v>811.71500000000003</v>
+        <v>764.32600000000002</v>
       </c>
       <c r="B82" s="1">
-        <v>1018.056</v>
+        <v>1017.0890000000001</v>
       </c>
       <c r="C82" s="1">
-        <v>2900.4</v>
+        <v>2903</v>
       </c>
       <c r="D82" s="1">
         <v>0.03</v>
@@ -1582,13 +1582,13 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
-        <v>811.49300000000005</v>
+        <v>763.49</v>
       </c>
       <c r="B83" s="1">
-        <v>924.76</v>
+        <v>922.82799999999997</v>
       </c>
       <c r="C83" s="1">
-        <v>2900.4</v>
+        <v>2903</v>
       </c>
       <c r="D83" s="1">
         <v>2.0499999999999998</v>
@@ -1597,28 +1597,28 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
-        <v>811.33299999999997</v>
+        <v>762.95799999999997</v>
       </c>
       <c r="B84" s="1">
-        <v>832.42600000000004</v>
+        <v>829.95500000000004</v>
       </c>
       <c r="C84" s="1">
-        <v>2900.4</v>
+        <v>2903</v>
       </c>
       <c r="D84" s="1">
-        <v>4.05</v>
+        <v>4.03</v>
       </c>
       <c r="E84" s="1"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
-        <v>812.03099999999995</v>
+        <v>763.03</v>
       </c>
       <c r="B85" s="1">
-        <v>739.44799999999998</v>
+        <v>735.447</v>
       </c>
       <c r="C85" s="1">
-        <v>2900.4</v>
+        <v>2903</v>
       </c>
       <c r="D85" s="1">
         <v>6.05</v>
@@ -1627,73 +1627,73 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
-        <v>813.11199999999997</v>
+        <v>763.72</v>
       </c>
       <c r="B86" s="1">
-        <v>645.91300000000001</v>
+        <v>641.65700000000004</v>
       </c>
       <c r="C86" s="1">
-        <v>2900.4</v>
+        <v>2903</v>
       </c>
       <c r="D86" s="1">
-        <v>8.0500000000000007</v>
+        <v>8.02</v>
       </c>
       <c r="E86" s="1"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
-        <v>815.10400000000004</v>
+        <v>764.65700000000004</v>
       </c>
       <c r="B87" s="1">
-        <v>551.32299999999998</v>
+        <v>545.93600000000004</v>
       </c>
       <c r="C87" s="1">
-        <v>2900.4</v>
+        <v>2903</v>
       </c>
       <c r="D87" s="1">
-        <v>10.07</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="E87" s="1"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
-        <v>817.73900000000003</v>
+        <v>766.13099999999997</v>
       </c>
       <c r="B88" s="1">
-        <v>457.83</v>
+        <v>449.84300000000002</v>
       </c>
       <c r="C88" s="1">
-        <v>2900.4</v>
+        <v>2903</v>
       </c>
       <c r="D88" s="1">
-        <v>12.05</v>
+        <v>12.02</v>
       </c>
       <c r="E88" s="1"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
-        <v>820.58500000000004</v>
+        <v>768.09799999999996</v>
       </c>
       <c r="B89" s="1">
-        <v>361.19799999999998</v>
+        <v>351.44299999999998</v>
       </c>
       <c r="C89" s="1">
-        <v>2900.4</v>
+        <v>2903</v>
       </c>
       <c r="D89" s="1">
-        <v>14.05</v>
+        <v>14.02</v>
       </c>
       <c r="E89" s="1"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
-        <v>824.23800000000006</v>
+        <v>770.42899999999997</v>
       </c>
       <c r="B90" s="1">
-        <v>263.161</v>
+        <v>251.101</v>
       </c>
       <c r="C90" s="1">
-        <v>2900.4</v>
+        <v>2903</v>
       </c>
       <c r="D90" s="1">
         <v>16.05</v>
@@ -1702,13 +1702,13 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
-        <v>797.6</v>
+        <v>750.34799999999996</v>
       </c>
       <c r="B91" s="1">
-        <v>1018.1079999999999</v>
+        <v>1017.976</v>
       </c>
       <c r="C91" s="1">
-        <v>3000</v>
+        <v>3002.6</v>
       </c>
       <c r="D91" s="1">
         <v>0</v>
@@ -1717,118 +1717,118 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
-        <v>825.21500000000003</v>
+        <v>773.01700000000005</v>
       </c>
       <c r="B92" s="1">
-        <v>1790.2470000000001</v>
+        <v>1778.393</v>
       </c>
       <c r="C92" s="1">
-        <v>3000</v>
+        <v>3002.6</v>
       </c>
       <c r="D92" s="1">
-        <v>-15.93</v>
+        <v>-16.079999999999998</v>
       </c>
       <c r="E92" s="1"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
-        <v>819.57500000000005</v>
+        <v>768.27</v>
       </c>
       <c r="B93" s="1">
-        <v>1694.048</v>
+        <v>1673.9490000000001</v>
       </c>
       <c r="C93" s="1">
-        <v>3000</v>
+        <v>3002.6</v>
       </c>
       <c r="D93" s="1">
-        <v>-14.07</v>
+        <v>-13.98</v>
       </c>
       <c r="E93" s="1"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
-        <v>814.46299999999997</v>
+        <v>764.29399999999998</v>
       </c>
       <c r="B94" s="1">
-        <v>1591.6489999999999</v>
+        <v>1575.53</v>
       </c>
       <c r="C94" s="1">
-        <v>3000</v>
+        <v>3002.6</v>
       </c>
       <c r="D94" s="1">
-        <v>-12.05</v>
+        <v>-11.95</v>
       </c>
       <c r="E94" s="1"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
-        <v>809.90099999999995</v>
+        <v>760.74800000000005</v>
       </c>
       <c r="B95" s="1">
-        <v>1491.9449999999999</v>
+        <v>1479.828</v>
       </c>
       <c r="C95" s="1">
-        <v>3000</v>
+        <v>3002.6</v>
       </c>
       <c r="D95" s="1">
-        <v>-10</v>
+        <v>-9.9499999999999993</v>
       </c>
       <c r="E95" s="1"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
-        <v>806.38900000000001</v>
+        <v>757.59799999999996</v>
       </c>
       <c r="B96" s="1">
-        <v>1395.261</v>
+        <v>1385.325</v>
       </c>
       <c r="C96" s="1">
-        <v>3000</v>
+        <v>3002.6</v>
       </c>
       <c r="D96" s="1">
-        <v>-8.0299999999999994</v>
+        <v>-7.93</v>
       </c>
       <c r="E96" s="1"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
-        <v>803.34100000000001</v>
+        <v>755.274</v>
       </c>
       <c r="B97" s="1">
-        <v>1298.6980000000001</v>
+        <v>1292.9169999999999</v>
       </c>
       <c r="C97" s="1">
-        <v>3000</v>
+        <v>3002.6</v>
       </c>
       <c r="D97" s="1">
-        <v>-5.98</v>
+        <v>-5.93</v>
       </c>
       <c r="E97" s="1"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
-        <v>800.54600000000005</v>
+        <v>753.05799999999999</v>
       </c>
       <c r="B98" s="1">
-        <v>1204.269</v>
+        <v>1200.71</v>
       </c>
       <c r="C98" s="1">
-        <v>3000</v>
+        <v>3002.6</v>
       </c>
       <c r="D98" s="1">
-        <v>-4</v>
+        <v>-3.93</v>
       </c>
       <c r="E98" s="1"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
-        <v>798.98800000000006</v>
+        <v>751.48099999999999</v>
       </c>
       <c r="B99" s="1">
-        <v>1110.3009999999999</v>
+        <v>1108.8050000000001</v>
       </c>
       <c r="C99" s="1">
-        <v>3000</v>
+        <v>3002.6</v>
       </c>
       <c r="D99" s="1">
         <v>-1.98</v>
@@ -1837,13 +1837,13 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
-        <v>797.58699999999999</v>
+        <v>750.20899999999995</v>
       </c>
       <c r="B100" s="1">
-        <v>1016.419</v>
+        <v>1015.026</v>
       </c>
       <c r="C100" s="1">
-        <v>3000</v>
+        <v>3002.6</v>
       </c>
       <c r="D100" s="1">
         <v>0.05</v>
@@ -1852,58 +1852,58 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
-        <v>797.48299999999995</v>
+        <v>749.49</v>
       </c>
       <c r="B101" s="1">
-        <v>923.71600000000001</v>
+        <v>921.91399999999999</v>
       </c>
       <c r="C101" s="1">
-        <v>3000</v>
+        <v>3002.6</v>
       </c>
       <c r="D101" s="1">
-        <v>2.02</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="E101" s="1"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
-        <v>797.45799999999997</v>
+        <v>748.92100000000005</v>
       </c>
       <c r="B102" s="1">
-        <v>831.19399999999996</v>
+        <v>829.55200000000002</v>
       </c>
       <c r="C102" s="1">
-        <v>3000</v>
+        <v>3002.6</v>
       </c>
       <c r="D102" s="1">
-        <v>4.05</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="E102" s="1"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
-        <v>797.95100000000002</v>
+        <v>748.96400000000006</v>
       </c>
       <c r="B103" s="1">
-        <v>737.96900000000005</v>
+        <v>734.60900000000004</v>
       </c>
       <c r="C103" s="1">
-        <v>3000</v>
+        <v>3002.6</v>
       </c>
       <c r="D103" s="1">
-        <v>6.07</v>
+        <v>6.05</v>
       </c>
       <c r="E103" s="1"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
-        <v>799.09</v>
+        <v>749.59</v>
       </c>
       <c r="B104" s="1">
-        <v>645.48</v>
+        <v>640.76400000000001</v>
       </c>
       <c r="C104" s="1">
-        <v>3000</v>
+        <v>3002.6</v>
       </c>
       <c r="D104" s="1">
         <v>8.0500000000000007</v>
@@ -1912,58 +1912,58 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
-        <v>800.97799999999995</v>
+        <v>750.41200000000003</v>
       </c>
       <c r="B105" s="1">
-        <v>551.37800000000004</v>
+        <v>546.79499999999996</v>
       </c>
       <c r="C105" s="1">
-        <v>3000</v>
+        <v>3002.6</v>
       </c>
       <c r="D105" s="1">
-        <v>10.07</v>
+        <v>10.02</v>
       </c>
       <c r="E105" s="1"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
-        <v>803.43899999999996</v>
+        <v>751.93</v>
       </c>
       <c r="B106" s="1">
-        <v>457.82499999999999</v>
+        <v>449.5</v>
       </c>
       <c r="C106" s="1">
-        <v>3000</v>
+        <v>3002.6</v>
       </c>
       <c r="D106" s="1">
-        <v>12.05</v>
+        <v>12.02</v>
       </c>
       <c r="E106" s="1"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
-        <v>806.43799999999999</v>
+        <v>753.94600000000003</v>
       </c>
       <c r="B107" s="1">
-        <v>361.13799999999998</v>
+        <v>350.666</v>
       </c>
       <c r="C107" s="1">
-        <v>3000</v>
+        <v>3002.6</v>
       </c>
       <c r="D107" s="1">
-        <v>14.05</v>
+        <v>14.02</v>
       </c>
       <c r="E107" s="1"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
-        <v>809.92899999999997</v>
+        <v>755.97699999999998</v>
       </c>
       <c r="B108" s="1">
-        <v>263.57</v>
+        <v>250.47499999999999</v>
       </c>
       <c r="C108" s="1">
-        <v>3000</v>
+        <v>3002.6</v>
       </c>
       <c r="D108" s="1">
         <v>16.05</v>
